--- a/data/trans_bre/POLIPATOLOGIA_2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 14,51</t>
+          <t>0,59; 14,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 25,95</t>
+          <t>10,71; 25,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 24,87</t>
+          <t>8,55; 24,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 12,33</t>
+          <t>-1,91; 12,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 94,85</t>
+          <t>1,87; 93,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 132,39</t>
+          <t>39,76; 133,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,33; 121,25</t>
+          <t>26,64; 117,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 51,59</t>
+          <t>-6,25; 49,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 27,48</t>
+          <t>16,93; 28,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,91; 19,98</t>
+          <t>8,13; 19,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 19,06</t>
+          <t>7,58; 18,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 19,61</t>
+          <t>8,28; 19,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,68; 177,81</t>
+          <t>79,35; 181,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,89; 116,38</t>
+          <t>34,51; 110,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 96,46</t>
+          <t>29,91; 99,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,78; 88,83</t>
+          <t>27,05; 87,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,81</t>
+          <t>7,58; 21,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 15,53</t>
+          <t>1,08; 16,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 19,96</t>
+          <t>6,35; 19,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 18,13</t>
+          <t>3,9; 17,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,04; 157,6</t>
+          <t>39,69; 156,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 63,15</t>
+          <t>2,78; 64,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 123,29</t>
+          <t>27,47; 121,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 56,75</t>
+          <t>9,99; 55,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 16,6</t>
+          <t>3,52; 16,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 26,48</t>
+          <t>13,32; 26,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,83</t>
+          <t>7,33; 21,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 36,71</t>
+          <t>3,21; 35,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 96,0</t>
+          <t>13,21; 91,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,82; 130,74</t>
+          <t>51,32; 134,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 82,04</t>
+          <t>22,16; 83,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 114,42</t>
+          <t>5,93; 110,75</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 26,18</t>
+          <t>8,95; 26,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,1; 39,89</t>
+          <t>21,77; 39,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 25,78</t>
+          <t>8,6; 26,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 23,17</t>
+          <t>-10,87; 22,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>59,87; 287,38</t>
+          <t>53,83; 277,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,25; 169,54</t>
+          <t>65,94; 175,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,24; 134,51</t>
+          <t>30,9; 141,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-31,65; 72,98</t>
+          <t>-32,56; 72,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,26</t>
+          <t>9,99; 25,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 21,43</t>
+          <t>5,36; 21,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,42; 18,94</t>
+          <t>2,74; 18,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 13,52</t>
+          <t>-0,63; 13,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,82; 172,99</t>
+          <t>43,63; 165,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 76,74</t>
+          <t>13,76; 77,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,32; 94,65</t>
+          <t>9,74; 93,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 35,17</t>
+          <t>-0,68; 36,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,66; 14,91</t>
+          <t>5,29; 14,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 18,16</t>
+          <t>7,4; 17,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,96; 15,73</t>
+          <t>5,88; 15,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,46; 47,29</t>
+          <t>20,74; 47,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,46; 87,01</t>
+          <t>24,09; 87,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,79; 75,09</t>
+          <t>25,05; 74,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,75; 80,8</t>
+          <t>25,05; 79,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,06; 131,07</t>
+          <t>50,78; 133,97</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,43; 17,72</t>
+          <t>7,4; 16,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 14,45</t>
+          <t>5,59; 14,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,72</t>
+          <t>4,2; 13,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,26; 29,44</t>
+          <t>9,05; 31,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,64; 78,25</t>
+          <t>27,02; 74,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,38; 83,03</t>
+          <t>25,57; 84,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,39; 58,54</t>
+          <t>15,0; 57,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33,43; 332,93</t>
+          <t>31,92; 304,56</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,49; 15,89</t>
+          <t>11,66; 15,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,66</t>
+          <t>12,2; 16,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,4</t>
+          <t>9,89; 14,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,38; 31,17</t>
+          <t>13,5; 28,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>55,13; 84,93</t>
+          <t>56,65; 84,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>48,18; 71,8</t>
+          <t>48,38; 72,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,48; 62,95</t>
+          <t>40,02; 62,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>41,62; 128,36</t>
+          <t>41,68; 109,04</t>
         </is>
       </c>
     </row>
